--- a/excel/tw_1303.xlsx
+++ b/excel/tw_1303.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="2489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="2491">
   <si>
     <t>index</t>
   </si>
@@ -7481,6 +7481,12 @@
   </si>
   <si>
     <t>2020-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-31 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -7838,7 +7844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2479"/>
+  <dimension ref="A1:L2481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -102043,6 +102049,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2480" spans="1:12">
+      <c r="A2480" s="1">
+        <v>2478</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C2480">
+        <v>13967893</v>
+      </c>
+      <c r="D2480">
+        <v>973595345</v>
+      </c>
+      <c r="E2480">
+        <v>69.7</v>
+      </c>
+      <c r="F2480">
+        <v>71.3</v>
+      </c>
+      <c r="G2480">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="H2480">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I2480">
+        <v>-4.2</v>
+      </c>
+      <c r="J2480">
+        <v>6931</v>
+      </c>
+      <c r="K2480">
+        <v>1303</v>
+      </c>
+      <c r="L2480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:12">
+      <c r="A2481" s="1">
+        <v>2479</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C2481">
+        <v>6665272</v>
+      </c>
+      <c r="D2481">
+        <v>463801480</v>
+      </c>
+      <c r="E2481">
+        <v>68.8</v>
+      </c>
+      <c r="F2481">
+        <v>70</v>
+      </c>
+      <c r="G2481">
+        <v>68.8</v>
+      </c>
+      <c r="H2481">
+        <v>69.7</v>
+      </c>
+      <c r="I2481">
+        <v>1.1</v>
+      </c>
+      <c r="J2481">
+        <v>3080</v>
+      </c>
+      <c r="K2481">
+        <v>1303</v>
+      </c>
+      <c r="L2481">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
